--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanminguy/OpenClassrooms/Projet 4/DylanMINGUY_4_23112020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F654B05-FB61-9346-B6BC-BB591C07A4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102CB18-802D-8243-8C12-63E8FE1DE9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Catégorie</t>
   </si>
@@ -66,12 +66,6 @@
     <t xml:space="preserve">Les balises &lt;meta&gt; </t>
   </si>
   <si>
-    <t>Lien d'ancre</t>
-  </si>
-  <si>
-    <t>Liens vers les autres pages du site (remplacer) par des mots clés</t>
-  </si>
-  <si>
     <t>https://blog.comexplorer.com/optimisation-seo-6-criteres-referencement</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Ajouter, le nom de marque, et des mots clés dans la balise &lt;title&gt;, pour avoir un meilleur référencement.</t>
   </si>
   <si>
-    <t>Code source sans erreur validé W3C</t>
-  </si>
-  <si>
     <t>Validation W3C HTML/CSS</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Accessibilit%C3%A9/Checklist_accessibilite_mobile</t>
-  </si>
-  <si>
-    <t>Contraste des éléménts présents sur la page</t>
   </si>
   <si>
     <t xml:space="preserve">Aucun élément ne doit être masqué avec l'utilisation d'une contraste nulle. </t>
@@ -256,6 +244,21 @@
   </si>
   <si>
     <t>Il n'y a que des &lt;div&gt;. Nous poiurrions utiliser des balises sémantiques pour améliorer le référencement (&lt;header&gt;, &lt;main&gt;, &lt;section&gt;, &lt;article&gt;,…)</t>
+  </si>
+  <si>
+    <t>Code source sans erreur validé W3C, pour avoir un meilleur référencement.</t>
+  </si>
+  <si>
+    <t>COULEUR NIVEAU AA WCAG2.0</t>
+  </si>
+  <si>
+    <t>Le contraste des couleurs DOIT respecter le niveau AA de WCAG 2.0. Le blanc sur fond orange ne correspond pas</t>
+  </si>
+  <si>
+    <t>Verifier le contraste des couleurs pour les adapter aux normes WCAG 2.0</t>
+  </si>
+  <si>
+    <t>Contraste</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -647,13 +650,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
+      <c r="D2" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>1</v>
@@ -670,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>1</v>
@@ -687,36 +690,36 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,107 +727,110 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>48</v>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -852,49 +858,41 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="15" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1877,7 +1875,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
